--- a/results/mp/logistic/corona/confidence/84/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
@@ -67,30 +61,21 @@
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -100,202 +85,211 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>nice</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>like</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>for</t>
+    <t>?</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -653,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -822,37 +816,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6470588235294118</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1014,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5555555555555556</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8302872062663186</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L10">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="M10">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5263157894736842</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8205128205128205</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,31 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L12">
+        <v>317</v>
+      </c>
+      <c r="M12">
+        <v>317</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>66</v>
-      </c>
-      <c r="M12">
-        <v>66</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4656084656084656</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C13">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4594594594594595</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3604651162790697</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C15">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3529411764705883</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3066666666666666</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2711864406779661</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1490,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7735849056603774</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1514,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,37 +1516,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2678571428571428</v>
+        <v>0.01021209740769835</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>1260</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7605633802816901</v>
+        <v>0.765625</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,37 +1566,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1946308724832215</v>
+        <v>0.008434864104967198</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>120</v>
+        <v>2116</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1622,37 +1616,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1388888888888889</v>
+        <v>0.008389803162310423</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>310</v>
+        <v>3073</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7222222222222222</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,37 +1666,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07539682539682539</v>
+        <v>0.007179054054054054</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>233</v>
+        <v>2351</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,37 +1716,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01096121416526138</v>
+        <v>0.006094906399651719</v>
       </c>
       <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>33</v>
-      </c>
       <c r="E23">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="F23">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2346</v>
+        <v>2283</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,37 +1766,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007958801498127341</v>
+        <v>0.005640925889904688</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E24">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="F24">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2119</v>
+        <v>5112</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.6857142857142857</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,37 +1816,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006769825918762089</v>
+        <v>0.005355064027939465</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
       <c r="F25">
-        <v>0.8100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3081</v>
+        <v>4272</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,37 +1866,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005963590709353421</v>
+        <v>0.004711055276381909</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>0.53</v>
+      </c>
+      <c r="F26">
+        <v>0.47</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3169</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L26">
         <v>34</v>
       </c>
-      <c r="E26">
-        <v>0.44</v>
-      </c>
-      <c r="F26">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>3167</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L26">
-        <v>29</v>
-      </c>
       <c r="M26">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1922,163 +1916,115 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004868549172346641</v>
+        <v>0.003229713362939039</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
       <c r="F27">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5110</v>
+        <v>4938</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L27">
-        <v>42</v>
-      </c>
-      <c r="M27">
-        <v>42</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.004419632472668062</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>48</v>
-      </c>
-      <c r="E28">
-        <v>0.6</v>
-      </c>
-      <c r="F28">
-        <v>0.4</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4280</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28">
-        <v>0.66</v>
-      </c>
-      <c r="L28">
-        <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.004034698406294129</v>
-      </c>
-      <c r="C29">
+      <c r="K29">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L29">
+        <v>43</v>
+      </c>
+      <c r="M29">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>20</v>
-      </c>
-      <c r="D29">
-        <v>59</v>
-      </c>
-      <c r="E29">
-        <v>0.66</v>
-      </c>
-      <c r="F29">
-        <v>0.34</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>4937</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6382978723404256</v>
+        <v>0.68</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2116,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2147,16 +2093,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2168,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2194,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.6235294117647059</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L35">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2220,47 +2166,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5816326530612245</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L36">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.5774058577405857</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L37">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M37">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2272,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.574468085106383</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2298,12 +2244,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K39">
         <v>0.5652173913043478</v>
@@ -2329,16 +2275,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5571428571428572</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2350,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2376,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2402,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2428,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.4848484848484849</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2454,12 +2400,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K45">
         <v>0.4814814814814815</v>
@@ -2485,16 +2431,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.4719101123595505</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2506,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2532,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.3725490196078431</v>
+        <v>0.4</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2558,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2584,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.3150684931506849</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2610,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2636,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.2542372881355932</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2662,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.2280701754385965</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2688,267 +2634,267 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.02675585284280936</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N54">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.02564102564102564</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.01250977326035966</v>
+        <v>0.02673350041771094</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="O56">
-        <v>0.38</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1263</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="K57">
-        <v>0.0101427498121713</v>
+        <v>0.01253918495297806</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="O57">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2635</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.01005656819610308</v>
+        <v>0.01007556675062972</v>
       </c>
       <c r="L58">
         <v>16</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N58">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="O58">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.007837620578778135</v>
+        <v>0.00976342470897484</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N59">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="O59">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4937</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K60">
-        <v>0.006730099791134834</v>
+        <v>0.008433734939759036</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N60">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="O60">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>4280</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="K61">
-        <v>0.006155108740254411</v>
+        <v>0.007665505226480836</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N61">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="O61">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2422</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.005836575875486381</v>
+        <v>0.007521938988717091</v>
       </c>
       <c r="L62">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0.45</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>5110</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K63">
-        <v>0.005432511491851233</v>
+        <v>0.00657354149548069</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>0.59</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0.41</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>2380</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2956,25 +2902,51 @@
         <v>31</v>
       </c>
       <c r="K64">
-        <v>0.004714016341923318</v>
+        <v>0.005335844318895167</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N64">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="O64">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3167</v>
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65">
+        <v>0.004672897196261682</v>
+      </c>
+      <c r="L65">
+        <v>24</v>
+      </c>
+      <c r="M65">
+        <v>53</v>
+      </c>
+      <c r="N65">
+        <v>0.45</v>
+      </c>
+      <c r="O65">
+        <v>0.55</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
